--- a/ccaa_semanal_14_7.xlsx
+++ b/ccaa_semanal_14_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="53">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -177,6 +177,9 @@
   <si>
     <t xml:space="preserve">2020-09-17</t>
   </si>
+  <si>
+    <t xml:space="preserve">2020-09-24</t>
+  </si>
 </sst>
 </file>
 
@@ -315,11 +318,11 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A492" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C534" activeCellId="0" sqref="C534"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -9067,137 +9070,327 @@
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A515" s="3"/>
-      <c r="B515" s="1"/>
-      <c r="C515" s="1"/>
-      <c r="D515" s="4"/>
-      <c r="E515" s="1"/>
+      <c r="A515" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C515" s="1" t="n">
+        <v>8031</v>
+      </c>
+      <c r="D515" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A516" s="3"/>
-      <c r="B516" s="1"/>
-      <c r="C516" s="1"/>
-      <c r="D516" s="4"/>
-      <c r="E516" s="1"/>
+      <c r="A516" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C516" s="1" t="n">
+        <v>2441</v>
+      </c>
+      <c r="D516" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A517" s="3"/>
-      <c r="B517" s="1"/>
-      <c r="C517" s="1"/>
-      <c r="D517" s="4"/>
-      <c r="E517" s="1"/>
+      <c r="A517" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C517" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="D517" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A518" s="3"/>
-      <c r="B518" s="1"/>
-      <c r="C518" s="1"/>
-      <c r="D518" s="4"/>
-      <c r="E518" s="1"/>
+      <c r="A518" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C518" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D518" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A519" s="3"/>
-      <c r="B519" s="1"/>
-      <c r="C519" s="1"/>
-      <c r="D519" s="4"/>
-      <c r="E519" s="1"/>
+      <c r="A519" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C519" s="1" t="n">
+        <v>3052</v>
+      </c>
+      <c r="D519" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A520" s="3"/>
-      <c r="B520" s="1"/>
-      <c r="C520" s="1"/>
-      <c r="D520" s="4"/>
-      <c r="E520" s="1"/>
+      <c r="A520" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C520" s="1" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D520" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A521" s="3"/>
-      <c r="B521" s="1"/>
-      <c r="C521" s="1"/>
-      <c r="D521" s="4"/>
-      <c r="E521" s="1"/>
+      <c r="A521" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C521" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="D521" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A522" s="3"/>
-      <c r="B522" s="1"/>
-      <c r="C522" s="1"/>
-      <c r="D522" s="4"/>
-      <c r="E522" s="1"/>
+      <c r="A522" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C522" s="1" t="n">
+        <v>5059</v>
+      </c>
+      <c r="D522" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A523" s="3"/>
-      <c r="B523" s="1"/>
-      <c r="C523" s="1"/>
-      <c r="D523" s="4"/>
-      <c r="E523" s="1"/>
+      <c r="A523" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C523" s="1" t="n">
+        <v>5174</v>
+      </c>
+      <c r="D523" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A524" s="3"/>
-      <c r="B524" s="1"/>
-      <c r="C524" s="1"/>
-      <c r="D524" s="4"/>
-      <c r="E524" s="1"/>
+      <c r="A524" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C524" s="1" t="n">
+        <v>7073</v>
+      </c>
+      <c r="D524" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A525" s="3"/>
-      <c r="B525" s="1"/>
-      <c r="C525" s="1"/>
-      <c r="D525" s="4"/>
-      <c r="E525" s="1"/>
+      <c r="A525" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C525" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="D525" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A526" s="3"/>
-      <c r="B526" s="1"/>
-      <c r="C526" s="1"/>
-      <c r="D526" s="4"/>
-      <c r="E526" s="1"/>
+      <c r="A526" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C526" s="1" t="n">
+        <v>1608</v>
+      </c>
+      <c r="D526" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A527" s="3"/>
-      <c r="B527" s="1"/>
-      <c r="C527" s="1"/>
-      <c r="D527" s="4"/>
-      <c r="E527" s="1"/>
+      <c r="A527" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C527" s="1" t="n">
+        <v>1675</v>
+      </c>
+      <c r="D527" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A528" s="3"/>
-      <c r="B528" s="1"/>
-      <c r="C528" s="1"/>
-      <c r="D528" s="4"/>
-      <c r="E528" s="1"/>
+      <c r="A528" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C528" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="D528" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A529" s="3"/>
-      <c r="B529" s="1"/>
-      <c r="C529" s="1"/>
-      <c r="D529" s="4"/>
-      <c r="E529" s="1"/>
+      <c r="A529" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C529" s="1" t="n">
+        <v>28862</v>
+      </c>
+      <c r="D529" s="4" t="n">
+        <v>177</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A530" s="3"/>
-      <c r="B530" s="1"/>
-      <c r="C530" s="1"/>
-      <c r="D530" s="4"/>
-      <c r="E530" s="1"/>
+      <c r="A530" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C530" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="D530" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A531" s="3"/>
-      <c r="B531" s="1"/>
-      <c r="C531" s="1"/>
-      <c r="D531" s="4"/>
-      <c r="E531" s="1"/>
+      <c r="A531" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C531" s="1" t="n">
+        <v>3295</v>
+      </c>
+      <c r="D531" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A532" s="3"/>
-      <c r="B532" s="1"/>
-      <c r="C532" s="1"/>
-      <c r="D532" s="4"/>
-      <c r="E532" s="1"/>
+      <c r="A532" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C532" s="1" t="n">
+        <v>2311</v>
+      </c>
+      <c r="D532" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A533" s="3"/>
-      <c r="B533" s="1"/>
-      <c r="C533" s="1"/>
-      <c r="D533" s="4"/>
-      <c r="E533" s="1"/>
+      <c r="A533" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C533" s="1" t="n">
+        <v>3094</v>
+      </c>
+      <c r="D533" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ccaa_semanal_14_7.xlsx
+++ b/ccaa_semanal_14_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="53">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -185,9 +185,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -274,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,6 +300,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -318,11 +323,11 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A492" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C534" activeCellId="0" sqref="C534"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A567" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E552" activeCellId="0" sqref="E552:E609"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -9392,82 +9397,1298 @@
         <v>43</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A534" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C534" s="0" t="n">
+        <v>8323</v>
+      </c>
+      <c r="D534" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A535" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C535" s="0" t="n">
+        <v>2408</v>
+      </c>
+      <c r="D535" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A536" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C536" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="D536" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A537" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C537" s="0" t="n">
+        <v>786</v>
+      </c>
+      <c r="D537" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A538" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C538" s="0" t="n">
+        <v>2723</v>
+      </c>
+      <c r="D538" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A539" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C539" s="0" t="n">
+        <v>1170</v>
+      </c>
+      <c r="D539" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A540" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C540" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="D540" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A541" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C541" s="0" t="n">
+        <v>4315</v>
+      </c>
+      <c r="D541" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A542" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C542" s="0" t="n">
+        <v>5144</v>
+      </c>
+      <c r="D542" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A543" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C543" s="0" t="n">
+        <v>7250</v>
+      </c>
+      <c r="D543" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A544" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C544" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="D544" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A545" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C545" s="0" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D545" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A546" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C546" s="0" t="n">
+        <v>1335</v>
+      </c>
+      <c r="D546" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A547" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C547" s="0" t="n">
+        <v>663</v>
+      </c>
+      <c r="D547" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A548" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C548" s="0" t="n">
+        <v>22250</v>
+      </c>
+      <c r="D548" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A549" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C549" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="D549" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A550" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C550" s="0" t="n">
+        <v>2967</v>
+      </c>
+      <c r="D550" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A551" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C551" s="0" t="n">
+        <v>2164</v>
+      </c>
+      <c r="D551" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A552" s="6" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C552" s="0" t="n">
+        <v>2645</v>
+      </c>
+      <c r="D552" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A553" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C553" s="1" t="n">
+        <v>9453</v>
+      </c>
+      <c r="D553" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A554" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C554" s="1" t="n">
+        <v>2608</v>
+      </c>
+      <c r="D554" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A555" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C555" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="D555" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A556" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C556" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="D556" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A557" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C557" s="1" t="n">
+        <v>3086</v>
+      </c>
+      <c r="D557" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A558" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C558" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="D558" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A559" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C559" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="D559" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A560" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C560" s="1" t="n">
+        <v>3939</v>
+      </c>
+      <c r="D560" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A561" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C561" s="1" t="n">
+        <v>4940</v>
+      </c>
+      <c r="D561" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A562" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C562" s="1" t="n">
+        <v>10417</v>
+      </c>
+      <c r="D562" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A563" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C563" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="D563" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A564" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C564" s="1" t="n">
+        <v>1201</v>
+      </c>
+      <c r="D564" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A565" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C565" s="1" t="n">
+        <v>1590</v>
+      </c>
+      <c r="D565" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A566" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C566" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="D566" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A567" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C567" s="1" t="n">
+        <v>17067</v>
+      </c>
+      <c r="D567" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A568" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C568" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="D568" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A569" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C569" s="1" t="n">
+        <v>2940</v>
+      </c>
+      <c r="D569" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A570" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C570" s="1" t="n">
+        <v>2144</v>
+      </c>
+      <c r="D570" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A571" s="6" t="n">
+        <v>44112</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C571" s="1" t="n">
+        <v>2609</v>
+      </c>
+      <c r="D571" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A572" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C572" s="1" t="n">
+        <v>12623</v>
+      </c>
+      <c r="D572" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A573" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C573" s="1" t="n">
+        <v>3179</v>
+      </c>
+      <c r="D573" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A574" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C574" s="1" t="n">
+        <v>1267</v>
+      </c>
+      <c r="D574" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A575" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C575" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="D575" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A576" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C576" s="1" t="n">
+        <v>3482</v>
+      </c>
+      <c r="D576" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A577" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C577" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="D577" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A578" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C578" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="D578" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A579" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C579" s="1" t="n">
+        <v>4117</v>
+      </c>
+      <c r="D579" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A580" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C580" s="1" t="n">
+        <v>5927</v>
+      </c>
+      <c r="D580" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A581" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C581" s="1" t="n">
+        <v>15053</v>
+      </c>
+      <c r="D581" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A582" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C582" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="D582" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A583" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C583" s="1" t="n">
+        <v>1487</v>
+      </c>
+      <c r="D583" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A584" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C584" s="1" t="n">
+        <v>2211</v>
+      </c>
+      <c r="D584" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A585" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C585" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="D585" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A586" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C586" s="1" t="n">
+        <v>14307</v>
+      </c>
+      <c r="D586" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A587" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C587" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="D587" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A588" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C588" s="1" t="n">
+        <v>2815</v>
+      </c>
+      <c r="D588" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A589" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C589" s="1" t="n">
+        <v>2216</v>
+      </c>
+      <c r="D589" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A590" s="6" t="n">
+        <v>44119</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C590" s="1" t="n">
+        <v>3613</v>
+      </c>
+      <c r="D590" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A591" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C591" s="1" t="n">
+        <v>20629</v>
+      </c>
+      <c r="D591" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A592" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C592" s="1" t="n">
+        <v>5227</v>
+      </c>
+      <c r="D592" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A593" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C593" s="1" t="n">
+        <v>1609</v>
+      </c>
+      <c r="D593" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A594" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C594" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="D594" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A595" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C595" s="1" t="n">
+        <v>6084</v>
+      </c>
+      <c r="D595" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A596" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C596" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="D596" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A597" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C597" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="D597" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A598" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C598" s="1" t="n">
+        <v>5069</v>
+      </c>
+      <c r="D598" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A599" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C599" s="1" t="n">
+        <v>8921</v>
+      </c>
+      <c r="D599" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A600" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C600" s="1" t="n">
+        <v>26451</v>
+      </c>
+      <c r="D600" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A601" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C601" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="D601" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A602" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C602" s="1" t="n">
+        <v>2099</v>
+      </c>
+      <c r="D602" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A603" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C603" s="1" t="n">
+        <v>2922</v>
+      </c>
+      <c r="D603" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A604" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C604" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="D604" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A605" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C605" s="1" t="n">
+        <v>15178</v>
+      </c>
+      <c r="D605" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A606" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C606" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="D606" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A607" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C607" s="1" t="n">
+        <v>3685</v>
+      </c>
+      <c r="D607" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A608" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C608" s="1" t="n">
+        <v>3769</v>
+      </c>
+      <c r="D608" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A609" s="6" t="n">
+        <v>44126</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C609" s="1" t="n">
+        <v>5525</v>
+      </c>
+      <c r="D609" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ccaa_semanal_14_7.xlsx
+++ b/ccaa_semanal_14_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="57">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -180,15 +180,26 @@
   <si>
     <t xml:space="preserve">2020-09-24</t>
   </si>
+  <si>
+    <t xml:space="preserve">2020-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -275,7 +286,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -300,10 +311,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,8 +330,8 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A567" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E552" activeCellId="0" sqref="E552:E609"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A573" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D592" activeCellId="0" sqref="D592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9398,8 +9405,8 @@
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A534" s="6" t="n">
-        <v>44105</v>
+      <c r="A534" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>6</v>
@@ -9415,8 +9422,8 @@
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A535" s="6" t="n">
-        <v>44105</v>
+      <c r="A535" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>7</v>
@@ -9432,8 +9439,8 @@
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A536" s="6" t="n">
-        <v>44105</v>
+      <c r="A536" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>8</v>
@@ -9449,8 +9456,8 @@
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A537" s="6" t="n">
-        <v>44105</v>
+      <c r="A537" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>9</v>
@@ -9466,8 +9473,8 @@
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A538" s="6" t="n">
-        <v>44105</v>
+      <c r="A538" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>10</v>
@@ -9483,8 +9490,8 @@
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A539" s="6" t="n">
-        <v>44105</v>
+      <c r="A539" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>11</v>
@@ -9500,8 +9507,8 @@
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A540" s="6" t="n">
-        <v>44105</v>
+      <c r="A540" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>12</v>
@@ -9517,8 +9524,8 @@
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A541" s="6" t="n">
-        <v>44105</v>
+      <c r="A541" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>13</v>
@@ -9534,8 +9541,8 @@
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A542" s="6" t="n">
-        <v>44105</v>
+      <c r="A542" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>14</v>
@@ -9551,8 +9558,8 @@
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A543" s="6" t="n">
-        <v>44105</v>
+      <c r="A543" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>15</v>
@@ -9568,8 +9575,8 @@
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A544" s="6" t="n">
-        <v>44105</v>
+      <c r="A544" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>16</v>
@@ -9585,8 +9592,8 @@
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A545" s="6" t="n">
-        <v>44105</v>
+      <c r="A545" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>17</v>
@@ -9602,8 +9609,8 @@
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A546" s="6" t="n">
-        <v>44105</v>
+      <c r="A546" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>18</v>
@@ -9619,8 +9626,8 @@
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A547" s="6" t="n">
-        <v>44105</v>
+      <c r="A547" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>19</v>
@@ -9636,8 +9643,8 @@
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A548" s="6" t="n">
-        <v>44105</v>
+      <c r="A548" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>20</v>
@@ -9653,8 +9660,8 @@
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A549" s="6" t="n">
-        <v>44105</v>
+      <c r="A549" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>21</v>
@@ -9670,8 +9677,8 @@
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A550" s="6" t="n">
-        <v>44105</v>
+      <c r="A550" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>22</v>
@@ -9687,8 +9694,8 @@
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A551" s="6" t="n">
-        <v>44105</v>
+      <c r="A551" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>23</v>
@@ -9704,8 +9711,8 @@
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A552" s="6" t="n">
-        <v>44105</v>
+      <c r="A552" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>24</v>
@@ -9721,8 +9728,8 @@
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A553" s="6" t="n">
-        <v>44112</v>
+      <c r="A553" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>6</v>
@@ -9738,8 +9745,8 @@
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A554" s="6" t="n">
-        <v>44112</v>
+      <c r="A554" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>7</v>
@@ -9755,8 +9762,8 @@
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A555" s="6" t="n">
-        <v>44112</v>
+      <c r="A555" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>8</v>
@@ -9772,8 +9779,8 @@
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A556" s="6" t="n">
-        <v>44112</v>
+      <c r="A556" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>9</v>
@@ -9789,8 +9796,8 @@
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A557" s="6" t="n">
-        <v>44112</v>
+      <c r="A557" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>10</v>
@@ -9806,8 +9813,8 @@
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A558" s="6" t="n">
-        <v>44112</v>
+      <c r="A558" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>11</v>
@@ -9823,8 +9830,8 @@
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A559" s="6" t="n">
-        <v>44112</v>
+      <c r="A559" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>12</v>
@@ -9840,8 +9847,8 @@
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A560" s="6" t="n">
-        <v>44112</v>
+      <c r="A560" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>13</v>
@@ -9857,8 +9864,8 @@
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A561" s="6" t="n">
-        <v>44112</v>
+      <c r="A561" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>14</v>
@@ -9874,8 +9881,8 @@
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A562" s="6" t="n">
-        <v>44112</v>
+      <c r="A562" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>15</v>
@@ -9891,8 +9898,8 @@
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A563" s="6" t="n">
-        <v>44112</v>
+      <c r="A563" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>16</v>
@@ -9908,8 +9915,8 @@
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A564" s="6" t="n">
-        <v>44112</v>
+      <c r="A564" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>17</v>
@@ -9925,8 +9932,8 @@
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A565" s="6" t="n">
-        <v>44112</v>
+      <c r="A565" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>18</v>
@@ -9942,8 +9949,8 @@
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A566" s="6" t="n">
-        <v>44112</v>
+      <c r="A566" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>19</v>
@@ -9959,8 +9966,8 @@
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A567" s="6" t="n">
-        <v>44112</v>
+      <c r="A567" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>20</v>
@@ -9976,8 +9983,8 @@
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A568" s="6" t="n">
-        <v>44112</v>
+      <c r="A568" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>21</v>
@@ -9993,8 +10000,8 @@
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A569" s="6" t="n">
-        <v>44112</v>
+      <c r="A569" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>22</v>
@@ -10010,8 +10017,8 @@
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A570" s="6" t="n">
-        <v>44112</v>
+      <c r="A570" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>23</v>
@@ -10027,8 +10034,8 @@
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A571" s="6" t="n">
-        <v>44112</v>
+      <c r="A571" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>24</v>
@@ -10044,8 +10051,8 @@
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A572" s="6" t="n">
-        <v>44119</v>
+      <c r="A572" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>6</v>
@@ -10061,8 +10068,8 @@
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A573" s="6" t="n">
-        <v>44119</v>
+      <c r="A573" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>7</v>
@@ -10078,8 +10085,8 @@
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A574" s="6" t="n">
-        <v>44119</v>
+      <c r="A574" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>8</v>
@@ -10095,8 +10102,8 @@
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A575" s="6" t="n">
-        <v>44119</v>
+      <c r="A575" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>9</v>
@@ -10112,8 +10119,8 @@
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A576" s="6" t="n">
-        <v>44119</v>
+      <c r="A576" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>10</v>
@@ -10129,8 +10136,8 @@
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A577" s="6" t="n">
-        <v>44119</v>
+      <c r="A577" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>11</v>
@@ -10146,8 +10153,8 @@
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A578" s="6" t="n">
-        <v>44119</v>
+      <c r="A578" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>12</v>
@@ -10163,8 +10170,8 @@
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A579" s="6" t="n">
-        <v>44119</v>
+      <c r="A579" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>13</v>
@@ -10180,8 +10187,8 @@
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A580" s="6" t="n">
-        <v>44119</v>
+      <c r="A580" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>14</v>
@@ -10197,8 +10204,8 @@
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A581" s="6" t="n">
-        <v>44119</v>
+      <c r="A581" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>15</v>
@@ -10214,8 +10221,8 @@
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A582" s="6" t="n">
-        <v>44119</v>
+      <c r="A582" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>16</v>
@@ -10231,8 +10238,8 @@
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A583" s="6" t="n">
-        <v>44119</v>
+      <c r="A583" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>17</v>
@@ -10248,8 +10255,8 @@
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A584" s="6" t="n">
-        <v>44119</v>
+      <c r="A584" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>18</v>
@@ -10265,8 +10272,8 @@
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A585" s="6" t="n">
-        <v>44119</v>
+      <c r="A585" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>19</v>
@@ -10282,8 +10289,8 @@
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A586" s="6" t="n">
-        <v>44119</v>
+      <c r="A586" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>20</v>
@@ -10299,8 +10306,8 @@
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A587" s="6" t="n">
-        <v>44119</v>
+      <c r="A587" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>21</v>
@@ -10316,8 +10323,8 @@
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A588" s="6" t="n">
-        <v>44119</v>
+      <c r="A588" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>22</v>
@@ -10333,8 +10340,8 @@
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A589" s="6" t="n">
-        <v>44119</v>
+      <c r="A589" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>23</v>
@@ -10350,8 +10357,8 @@
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A590" s="6" t="n">
-        <v>44119</v>
+      <c r="A590" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>24</v>
@@ -10367,8 +10374,8 @@
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A591" s="6" t="n">
-        <v>44126</v>
+      <c r="A591" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>6</v>
@@ -10384,8 +10391,8 @@
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A592" s="6" t="n">
-        <v>44126</v>
+      <c r="A592" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>7</v>
@@ -10401,8 +10408,8 @@
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A593" s="6" t="n">
-        <v>44126</v>
+      <c r="A593" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>8</v>
@@ -10418,8 +10425,8 @@
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A594" s="6" t="n">
-        <v>44126</v>
+      <c r="A594" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>9</v>
@@ -10435,8 +10442,8 @@
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A595" s="6" t="n">
-        <v>44126</v>
+      <c r="A595" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>10</v>
@@ -10452,8 +10459,8 @@
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A596" s="6" t="n">
-        <v>44126</v>
+      <c r="A596" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>11</v>
@@ -10469,8 +10476,8 @@
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A597" s="6" t="n">
-        <v>44126</v>
+      <c r="A597" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>12</v>
@@ -10486,8 +10493,8 @@
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A598" s="6" t="n">
-        <v>44126</v>
+      <c r="A598" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>13</v>
@@ -10503,8 +10510,8 @@
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A599" s="6" t="n">
-        <v>44126</v>
+      <c r="A599" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>14</v>
@@ -10520,8 +10527,8 @@
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A600" s="6" t="n">
-        <v>44126</v>
+      <c r="A600" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>15</v>
@@ -10537,8 +10544,8 @@
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A601" s="6" t="n">
-        <v>44126</v>
+      <c r="A601" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>16</v>
@@ -10554,8 +10561,8 @@
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A602" s="6" t="n">
-        <v>44126</v>
+      <c r="A602" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>17</v>
@@ -10571,8 +10578,8 @@
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A603" s="6" t="n">
-        <v>44126</v>
+      <c r="A603" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>18</v>
@@ -10588,8 +10595,8 @@
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A604" s="6" t="n">
-        <v>44126</v>
+      <c r="A604" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>19</v>
@@ -10605,8 +10612,8 @@
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A605" s="6" t="n">
-        <v>44126</v>
+      <c r="A605" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>20</v>
@@ -10622,8 +10629,8 @@
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A606" s="6" t="n">
-        <v>44126</v>
+      <c r="A606" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>21</v>
@@ -10639,8 +10646,8 @@
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A607" s="6" t="n">
-        <v>44126</v>
+      <c r="A607" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>22</v>
@@ -10656,8 +10663,8 @@
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A608" s="6" t="n">
-        <v>44126</v>
+      <c r="A608" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>23</v>
@@ -10673,8 +10680,8 @@
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A609" s="6" t="n">
-        <v>44126</v>
+      <c r="A609" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>24</v>

--- a/ccaa_semanal_14_7.xlsx
+++ b/ccaa_semanal_14_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="58">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -192,6 +192,9 @@
   <si>
     <t xml:space="preserve">2020-10-22</t>
   </si>
+  <si>
+    <t xml:space="preserve">2020-10-29</t>
+  </si>
 </sst>
 </file>
 
@@ -330,11 +333,11 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A573" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D592" activeCellId="0" sqref="D592"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A588" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E625" activeCellId="0" sqref="E625"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -10696,25 +10699,329 @@
         <v>43</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A610" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C610" s="1" t="n">
+        <v>26213</v>
+      </c>
+      <c r="D610" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A611" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C611" s="1" t="n">
+        <v>7786</v>
+      </c>
+      <c r="D611" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A612" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C612" s="1" t="n">
+        <v>2255</v>
+      </c>
+      <c r="D612" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A613" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C613" s="1" t="n">
+        <v>1492</v>
+      </c>
+      <c r="D613" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A614" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C614" s="1" t="n">
+        <v>7818</v>
+      </c>
+      <c r="D614" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A615" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C615" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="D615" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A616" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C616" s="1" t="n">
+        <v>1134</v>
+      </c>
+      <c r="D616" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A617" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C617" s="1" t="n">
+        <v>6687</v>
+      </c>
+      <c r="D617" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A618" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C618" s="1" t="n">
+        <v>10893</v>
+      </c>
+      <c r="D618" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A619" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C619" s="1" t="n">
+        <v>32930</v>
+      </c>
+      <c r="D619" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A620" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C620" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="D620" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A621" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C621" s="1" t="n">
+        <v>3194</v>
+      </c>
+      <c r="D621" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A622" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C622" s="1" t="n">
+        <v>4398</v>
+      </c>
+      <c r="D622" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A623" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C623" s="1" t="n">
+        <v>1206</v>
+      </c>
+      <c r="D623" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A624" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C624" s="1" t="n">
+        <v>13742</v>
+      </c>
+      <c r="D624" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A625" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C625" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="D625" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A626" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C626" s="1" t="n">
+        <v>5473</v>
+      </c>
+      <c r="D626" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A627" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C627" s="1" t="n">
+        <v>4007</v>
+      </c>
+      <c r="D627" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A628" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C628" s="1" t="n">
+        <v>7407</v>
+      </c>
+      <c r="D628" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ccaa_semanal_14_7.xlsx
+++ b/ccaa_semanal_14_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="62">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -195,6 +195,18 @@
   <si>
     <t xml:space="preserve">2020-10-29</t>
   </si>
+  <si>
+    <t xml:space="preserve">2020-11-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-26</t>
+  </si>
 </sst>
 </file>
 
@@ -333,11 +345,11 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A588" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E625" activeCellId="0" sqref="E625"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A672" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D686" activeCellId="0" sqref="D686"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -11022,82 +11034,1298 @@
         <v>43</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A629" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B629" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C629" s="0" t="n">
+        <v>24978</v>
+      </c>
+      <c r="D629" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A630" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B630" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C630" s="0" t="n">
+        <v>6725</v>
+      </c>
+      <c r="D630" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A631" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B631" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C631" s="0" t="n">
+        <v>2317</v>
+      </c>
+      <c r="D631" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A632" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B632" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C632" s="0" t="n">
+        <v>1516</v>
+      </c>
+      <c r="D632" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A633" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B633" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C633" s="0" t="n">
+        <v>8717</v>
+      </c>
+      <c r="D633" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A634" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B634" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C634" s="0" t="n">
+        <v>831</v>
+      </c>
+      <c r="D634" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A635" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B635" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C635" s="0" t="n">
+        <v>1292</v>
+      </c>
+      <c r="D635" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A636" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B636" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C636" s="0" t="n">
+        <v>6079</v>
+      </c>
+      <c r="D636" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A637" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B637" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C637" s="0" t="n">
+        <v>11090</v>
+      </c>
+      <c r="D637" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A638" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B638" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C638" s="0" t="n">
+        <v>28588</v>
+      </c>
+      <c r="D638" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A639" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B639" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C639" s="0" t="n">
+        <v>484</v>
+      </c>
+      <c r="D639" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A640" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B640" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C640" s="0" t="n">
+        <v>3060</v>
+      </c>
+      <c r="D640" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A641" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B641" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C641" s="0" t="n">
+        <v>4717</v>
+      </c>
+      <c r="D641" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A642" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B642" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C642" s="0" t="n">
+        <v>1310</v>
+      </c>
+      <c r="D642" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A643" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B643" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C643" s="0" t="n">
+        <v>11740</v>
+      </c>
+      <c r="D643" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A644" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B644" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C644" s="0" t="n">
+        <v>564</v>
+      </c>
+      <c r="D644" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A645" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B645" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C645" s="0" t="n">
+        <v>5882</v>
+      </c>
+      <c r="D645" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A646" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B646" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C646" s="0" t="n">
+        <v>4178</v>
+      </c>
+      <c r="D646" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A647" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B647" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C647" s="0" t="n">
+        <v>8703</v>
+      </c>
+      <c r="D647" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A648" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B648" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C648" s="0" t="n">
+        <v>26688</v>
+      </c>
+      <c r="D648" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A649" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B649" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C649" s="0" t="n">
+        <v>5314</v>
+      </c>
+      <c r="D649" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A650" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B650" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C650" s="0" t="n">
+        <v>3335</v>
+      </c>
+      <c r="D650" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A651" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B651" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C651" s="0" t="n">
+        <v>1476</v>
+      </c>
+      <c r="D651" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A652" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B652" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C652" s="0" t="n">
+        <v>9397</v>
+      </c>
+      <c r="D652" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A653" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B653" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C653" s="0" t="n">
+        <v>969</v>
+      </c>
+      <c r="D653" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A654" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B654" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C654" s="0" t="n">
+        <v>1678</v>
+      </c>
+      <c r="D654" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A655" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B655" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C655" s="0" t="n">
+        <v>5508</v>
+      </c>
+      <c r="D655" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A656" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B656" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C656" s="0" t="n">
+        <v>11328</v>
+      </c>
+      <c r="D656" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A657" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B657" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C657" s="0" t="n">
+        <v>20204</v>
+      </c>
+      <c r="D657" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A658" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B658" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C658" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="D658" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A659" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B659" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C659" s="0" t="n">
+        <v>2936</v>
+      </c>
+      <c r="D659" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A660" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B660" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C660" s="0" t="n">
+        <v>3870</v>
+      </c>
+      <c r="D660" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A661" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B661" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C661" s="0" t="n">
+        <v>1201</v>
+      </c>
+      <c r="D661" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A662" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B662" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C662" s="0" t="n">
+        <v>10858</v>
+      </c>
+      <c r="D662" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A663" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B663" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C663" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="D663" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A664" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B664" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C664" s="0" t="n">
+        <v>5964</v>
+      </c>
+      <c r="D664" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A665" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B665" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C665" s="0" t="n">
+        <v>1888</v>
+      </c>
+      <c r="D665" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A666" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B666" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C666" s="0" t="n">
+        <v>8978</v>
+      </c>
+      <c r="D666" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A667" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B667" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C667" s="0" t="n">
+        <v>20793</v>
+      </c>
+      <c r="D667" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A668" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B668" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C668" s="0" t="n">
+        <v>3226</v>
+      </c>
+      <c r="D668" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A669" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B669" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C669" s="0" t="n">
+        <v>3316</v>
+      </c>
+      <c r="D669" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A670" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B670" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C670" s="0" t="n">
+        <v>1334</v>
+      </c>
+      <c r="D670" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A671" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B671" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C671" s="0" t="n">
+        <v>8295</v>
+      </c>
+      <c r="D671" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A672" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B672" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C672" s="0" t="n">
+        <v>826</v>
+      </c>
+      <c r="D672" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A673" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B673" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C673" s="0" t="n">
+        <v>1502</v>
+      </c>
+      <c r="D673" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A674" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B674" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C674" s="0" t="n">
+        <v>4293</v>
+      </c>
+      <c r="D674" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A675" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B675" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C675" s="0" t="n">
+        <v>10181</v>
+      </c>
+      <c r="D675" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A676" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B676" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C676" s="0" t="n">
+        <v>13566</v>
+      </c>
+      <c r="D676" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A677" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B677" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C677" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="D677" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A678" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B678" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C678" s="0" t="n">
+        <v>1627</v>
+      </c>
+      <c r="D678" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A679" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B679" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C679" s="0" t="n">
+        <v>3952</v>
+      </c>
+      <c r="D679" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A680" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B680" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C680" s="0" t="n">
+        <v>892</v>
+      </c>
+      <c r="D680" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A681" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B681" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C681" s="0" t="n">
+        <v>9602</v>
+      </c>
+      <c r="D681" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A682" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B682" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C682" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="D682" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A683" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B683" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C683" s="0" t="n">
+        <v>3480</v>
+      </c>
+      <c r="D683" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A684" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B684" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C684" s="0" t="n">
+        <v>1198</v>
+      </c>
+      <c r="D684" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A685" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B685" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C685" s="0" t="n">
+        <v>6961</v>
+      </c>
+      <c r="D685" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A686" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B686" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C686" s="0" t="n">
+        <v>13409</v>
+      </c>
+      <c r="D686" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A687" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B687" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C687" s="0" t="n">
+        <v>2105</v>
+      </c>
+      <c r="D687" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A688" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B688" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C688" s="0" t="n">
+        <v>2135</v>
+      </c>
+      <c r="D688" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A689" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B689" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C689" s="0" t="n">
+        <v>1125</v>
+      </c>
+      <c r="D689" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A690" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B690" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C690" s="0" t="n">
+        <v>7295</v>
+      </c>
+      <c r="D690" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A691" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B691" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C691" s="0" t="n">
+        <v>857</v>
+      </c>
+      <c r="D691" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A692" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B692" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C692" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="D692" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A693" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B693" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C693" s="0" t="n">
+        <v>3122</v>
+      </c>
+      <c r="D693" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A694" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B694" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C694" s="0" t="n">
+        <v>5048</v>
+      </c>
+      <c r="D694" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A695" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B695" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C695" s="0" t="n">
+        <v>9069</v>
+      </c>
+      <c r="D695" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A696" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B696" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C696" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D696" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A697" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B697" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C697" s="0" t="n">
+        <v>1279</v>
+      </c>
+      <c r="D697" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A698" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B698" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C698" s="0" t="n">
+        <v>3310</v>
+      </c>
+      <c r="D698" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A699" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B699" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C699" s="0" t="n">
+        <v>644</v>
+      </c>
+      <c r="D699" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A700" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B700" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C700" s="0" t="n">
+        <v>7742</v>
+      </c>
+      <c r="D700" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A701" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B701" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C701" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="D701" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A702" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B702" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C702" s="0" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D702" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A703" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B703" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C703" s="0" t="n">
+        <v>921</v>
+      </c>
+      <c r="D703" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A704" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B704" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C704" s="0" t="n">
+        <v>4472</v>
+      </c>
+      <c r="D704" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ccaa_semanal_14_7.xlsx
+++ b/ccaa_semanal_14_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="71">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -207,6 +207,33 @@
   <si>
     <t xml:space="preserve">2020-11-26</t>
   </si>
+  <si>
+    <t xml:space="preserve">2020-12-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-28</t>
+  </si>
 </sst>
 </file>
 
@@ -339,17 +366,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A672" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D686" activeCellId="0" sqref="D686"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A833" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B841" activeCellId="0" sqref="B841"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -12326,177 +12353,2913 @@
         <v>43</v>
       </c>
     </row>
-    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A705" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C705" s="1" t="n">
+        <v>8736</v>
+      </c>
+      <c r="D705" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A706" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C706" s="1" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D706" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A707" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C707" s="1" t="n">
+        <v>1488</v>
+      </c>
+      <c r="D707" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A708" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C708" s="1" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D708" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A709" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C709" s="1" t="n">
+        <v>6042</v>
+      </c>
+      <c r="D709" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A710" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C710" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="D710" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A711" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C711" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="D711" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A712" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C712" s="1" t="n">
+        <v>2674</v>
+      </c>
+      <c r="D712" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A713" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C713" s="1" t="n">
+        <v>3244</v>
+      </c>
+      <c r="D713" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A714" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C714" s="1" t="n">
+        <v>8131</v>
+      </c>
+      <c r="D714" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A715" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C715" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="D715" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A716" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C716" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="D716" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A717" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C717" s="1" t="n">
+        <v>2460</v>
+      </c>
+      <c r="D717" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A718" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C718" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="D718" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A719" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C719" s="1" t="n">
+        <v>7680</v>
+      </c>
+      <c r="D719" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A720" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C720" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="D720" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A721" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C721" s="1" t="n">
+        <v>1368</v>
+      </c>
+      <c r="D721" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A722" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C722" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="D722" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A723" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C723" s="1" t="n">
+        <v>3516</v>
+      </c>
+      <c r="D723" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A724" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C724" s="1" t="n">
+        <v>5337</v>
+      </c>
+      <c r="D724" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A725" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C725" s="1" t="n">
+        <v>1189</v>
+      </c>
+      <c r="D725" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A726" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C726" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="D726" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A727" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C727" s="1" t="n">
+        <v>1596</v>
+      </c>
+      <c r="D727" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A728" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C728" s="1" t="n">
+        <v>5364</v>
+      </c>
+      <c r="D728" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A729" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C729" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="D729" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A730" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C730" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="D730" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E730" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A731" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C731" s="1" t="n">
+        <v>2394</v>
+      </c>
+      <c r="D731" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E731" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A732" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C732" s="1" t="n">
+        <v>2034</v>
+      </c>
+      <c r="D732" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A733" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C733" s="1" t="n">
+        <v>7003</v>
+      </c>
+      <c r="D733" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A734" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C734" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="D734" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A735" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C735" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="D735" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A736" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C736" s="1" t="n">
+        <v>2127</v>
+      </c>
+      <c r="D736" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E736" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A737" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C737" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="D737" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E737" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A738" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C738" s="1" t="n">
+        <v>6136</v>
+      </c>
+      <c r="D738" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E738" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A739" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C739" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="D739" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A740" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C740" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="D740" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A741" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C741" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="D741" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E741" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A742" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C742" s="1" t="n">
+        <v>2662</v>
+      </c>
+      <c r="D742" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E742" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A743" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C743" s="1" t="n">
+        <v>7264</v>
+      </c>
+      <c r="D743" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="E743" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A744" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C744" s="1" t="n">
+        <v>1630</v>
+      </c>
+      <c r="D744" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E744" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A745" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C745" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="D745" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E745" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A746" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C746" s="1" t="n">
+        <v>2707</v>
+      </c>
+      <c r="D746" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E746" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A747" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C747" s="1" t="n">
+        <v>10447</v>
+      </c>
+      <c r="D747" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A748" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C748" s="1" t="n">
+        <v>1562</v>
+      </c>
+      <c r="D748" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E748" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A749" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C749" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="D749" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A750" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C750" s="1" t="n">
+        <v>3473</v>
+      </c>
+      <c r="D750" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E750" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A751" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C751" s="1" t="n">
+        <v>2350</v>
+      </c>
+      <c r="D751" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E751" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A752" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C752" s="1" t="n">
+        <v>11338</v>
+      </c>
+      <c r="D752" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E752" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A753" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C753" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="D753" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A754" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C754" s="1" t="n">
+        <v>1636</v>
+      </c>
+      <c r="D754" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E754" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A755" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C755" s="1" t="n">
+        <v>2646</v>
+      </c>
+      <c r="D755" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E755" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A756" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C756" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="D756" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E756" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A757" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C757" s="1" t="n">
+        <v>12552</v>
+      </c>
+      <c r="D757" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E757" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A758" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C758" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="D758" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E758" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A759" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C759" s="1" t="n">
+        <v>1324</v>
+      </c>
+      <c r="D759" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E759" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A760" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C760" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="D760" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A761" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C761" s="1" t="n">
+        <v>3024</v>
+      </c>
+      <c r="D761" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A762" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C762" s="1" t="n">
+        <v>6580</v>
+      </c>
+      <c r="D762" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E762" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A763" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C763" s="1" t="n">
+        <v>1215</v>
+      </c>
+      <c r="D763" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E763" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A764" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C764" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="D764" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E764" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A765" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C765" s="1" t="n">
+        <v>3467</v>
+      </c>
+      <c r="D765" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E765" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A766" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C766" s="1" t="n">
+        <v>12287</v>
+      </c>
+      <c r="D766" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="E766" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A767" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C767" s="1" t="n">
+        <v>1457</v>
+      </c>
+      <c r="D767" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E767" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A768" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C768" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="D768" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E768" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A769" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C769" s="1" t="n">
+        <v>3855</v>
+      </c>
+      <c r="D769" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E769" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A770" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C770" s="1" t="n">
+        <v>1748</v>
+      </c>
+      <c r="D770" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E770" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A771" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C771" s="1" t="n">
+        <v>13931</v>
+      </c>
+      <c r="D771" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E771" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A772" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C772" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D772" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A773" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C773" s="1" t="n">
+        <v>2456</v>
+      </c>
+      <c r="D773" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E773" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A774" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C774" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D774" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A775" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C775" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="D775" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A776" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C776" s="1" t="n">
+        <v>13962</v>
+      </c>
+      <c r="D776" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A777" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C777" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="D777" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E777" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A778" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C778" s="1" t="n">
+        <v>1356</v>
+      </c>
+      <c r="D778" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A779" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C779" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="D779" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A780" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C780" s="1" t="n">
+        <v>2437</v>
+      </c>
+      <c r="D780" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A781" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C781" s="1" t="n">
+        <v>6711</v>
+      </c>
+      <c r="D781" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A782" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C782" s="1" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D782" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A783" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C783" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="D783" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A784" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C784" s="1" t="n">
+        <v>3133</v>
+      </c>
+      <c r="D784" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A785" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C785" s="1" t="n">
+        <v>10782</v>
+      </c>
+      <c r="D785" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A786" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C786" s="1" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D786" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A787" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C787" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="D787" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A788" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C788" s="1" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D788" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A789" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C789" s="1" t="n">
+        <v>2056</v>
+      </c>
+      <c r="D789" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A790" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C790" s="1" t="n">
+        <v>17303</v>
+      </c>
+      <c r="D790" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A791" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C791" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="D791" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A792" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C792" s="1" t="n">
+        <v>3167</v>
+      </c>
+      <c r="D792" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A793" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C793" s="1" t="n">
+        <v>2666</v>
+      </c>
+      <c r="D793" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A794" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C794" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="D794" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E794" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A795" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C795" s="1" t="n">
+        <v>14816</v>
+      </c>
+      <c r="D795" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A796" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C796" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="D796" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A797" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C797" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D797" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A798" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C798" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="D798" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A799" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C799" s="1" t="n">
+        <v>2243</v>
+      </c>
+      <c r="D799" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A800" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C800" s="1" t="n">
+        <v>11629</v>
+      </c>
+      <c r="D800" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A801" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C801" s="1" t="n">
+        <v>2281</v>
+      </c>
+      <c r="D801" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E801" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A802" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C802" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="D802" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A803" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C803" s="1" t="n">
+        <v>3241</v>
+      </c>
+      <c r="D803" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A804" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C804" s="1" t="n">
+        <v>17617</v>
+      </c>
+      <c r="D804" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A805" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C805" s="1" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D805" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A806" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C806" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="D806" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A807" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C807" s="1" t="n">
+        <v>6376</v>
+      </c>
+      <c r="D807" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A808" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C808" s="1" t="n">
+        <v>4273</v>
+      </c>
+      <c r="D808" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A809" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C809" s="1" t="n">
+        <v>16080</v>
+      </c>
+      <c r="D809" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A810" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C810" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="D810" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A811" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C811" s="1" t="n">
+        <v>4620</v>
+      </c>
+      <c r="D811" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A812" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C812" s="1" t="n">
+        <v>3614</v>
+      </c>
+      <c r="D812" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A813" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C813" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="D813" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A814" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C814" s="1" t="n">
+        <v>17569</v>
+      </c>
+      <c r="D814" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A815" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C815" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="D815" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A816" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C816" s="1" t="n">
+        <v>4280</v>
+      </c>
+      <c r="D816" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A817" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C817" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="D817" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A818" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C818" s="1" t="n">
+        <v>2637</v>
+      </c>
+      <c r="D818" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A819" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C819" s="1" t="n">
+        <v>29753</v>
+      </c>
+      <c r="D819" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A820" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C820" s="1" t="n">
+        <v>3941</v>
+      </c>
+      <c r="D820" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A821" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C821" s="1" t="n">
+        <v>1552</v>
+      </c>
+      <c r="D821" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A822" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C822" s="1" t="n">
+        <v>4491</v>
+      </c>
+      <c r="D822" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A823" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C823" s="1" t="n">
+        <v>33100</v>
+      </c>
+      <c r="D823" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A824" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C824" s="1" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D824" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A825" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C825" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="D825" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A826" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C826" s="1" t="n">
+        <v>12160</v>
+      </c>
+      <c r="D826" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A827" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C827" s="1" t="n">
+        <v>10755</v>
+      </c>
+      <c r="D827" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A828" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C828" s="1" t="n">
+        <v>27977</v>
+      </c>
+      <c r="D828" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A829" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C829" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="D829" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A830" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C830" s="1" t="n">
+        <v>8143</v>
+      </c>
+      <c r="D830" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A831" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C831" s="1" t="n">
+        <v>6372</v>
+      </c>
+      <c r="D831" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A832" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C832" s="1" t="n">
+        <v>1587</v>
+      </c>
+      <c r="D832" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A833" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C833" s="1" t="n">
+        <v>26047</v>
+      </c>
+      <c r="D833" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A834" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C834" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="D834" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A835" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C835" s="1" t="n">
+        <v>10801</v>
+      </c>
+      <c r="D835" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A836" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C836" s="1" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D836" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A837" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C837" s="1" t="n">
+        <v>4010</v>
+      </c>
+      <c r="D837" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A838" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C838" s="1" t="n">
+        <v>41969</v>
+      </c>
+      <c r="D838" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A839" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C839" s="1" t="n">
+        <v>5077</v>
+      </c>
+      <c r="D839" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A840" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C840" s="1" t="n">
+        <v>2312</v>
+      </c>
+      <c r="D840" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A841" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C841" s="1" t="n">
+        <v>4141</v>
+      </c>
+      <c r="D841" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A842" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C842" s="1" t="n">
+        <v>44269</v>
+      </c>
+      <c r="D842" s="0" t="n">
+        <v>469</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A843" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C843" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D843" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A844" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C844" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="D844" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A845" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C845" s="1" t="n">
+        <v>15322</v>
+      </c>
+      <c r="D845" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A846" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C846" s="1" t="n">
+        <v>17222</v>
+      </c>
+      <c r="D846" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A847" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C847" s="1" t="n">
+        <v>24705</v>
+      </c>
+      <c r="D847" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A848" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C848" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="D848" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A849" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C849" s="1" t="n">
+        <v>7824</v>
+      </c>
+      <c r="D849" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A850" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C850" s="1" t="n">
+        <v>9540</v>
+      </c>
+      <c r="D850" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A851" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C851" s="1" t="n">
+        <v>2079</v>
+      </c>
+      <c r="D851" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A852" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C852" s="1" t="n">
+        <v>34712</v>
+      </c>
+      <c r="D852" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A853" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C853" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="D853" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A854" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C854" s="1" t="n">
+        <v>12054</v>
+      </c>
+      <c r="D854" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A855" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C855" s="1" t="n">
+        <v>1554</v>
+      </c>
+      <c r="D855" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A856" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C856" s="1" t="n">
+        <v>5017</v>
+      </c>
+      <c r="D856" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A857" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C857" s="1" t="n">
+        <v>45331</v>
+      </c>
+      <c r="D857" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="E857" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A858" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C858" s="1" t="n">
+        <v>5080</v>
+      </c>
+      <c r="D858" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E858" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A859" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C859" s="1" t="n">
+        <v>3517</v>
+      </c>
+      <c r="D859" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E859" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A860" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C860" s="1" t="n">
+        <v>3452</v>
+      </c>
+      <c r="D860" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E860" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A861" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C861" s="1" t="n">
+        <v>40990</v>
+      </c>
+      <c r="D861" s="0" t="n">
+        <v>439</v>
+      </c>
+      <c r="E861" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A862" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C862" s="1" t="n">
+        <v>2033</v>
+      </c>
+      <c r="D862" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E862" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A863" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C863" s="1" t="n">
+        <v>1157</v>
+      </c>
+      <c r="D863" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E863" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A864" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C864" s="1" t="n">
+        <v>13376</v>
+      </c>
+      <c r="D864" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E864" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A865" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C865" s="1" t="n">
+        <v>17114</v>
+      </c>
+      <c r="D865" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A866" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C866" s="1" t="n">
+        <v>21390</v>
+      </c>
+      <c r="D866" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A867" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C867" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="D867" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A868" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C868" s="1" t="n">
+        <v>5445</v>
+      </c>
+      <c r="D868" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A869" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C869" s="1" t="n">
+        <v>11645</v>
+      </c>
+      <c r="D869" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A870" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C870" s="1" t="n">
+        <v>2166</v>
+      </c>
+      <c r="D870" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A871" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C871" s="1" t="n">
+        <v>33637</v>
+      </c>
+      <c r="D871" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A872" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C872" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="D872" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A873" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C873" s="1" t="n">
+        <v>8669</v>
+      </c>
+      <c r="D873" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A874" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C874" s="1" t="n">
+        <v>1687</v>
+      </c>
+      <c r="D874" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A875" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C875" s="1" t="n">
+        <v>6075</v>
+      </c>
+      <c r="D875" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ccaa_semanal_14_7.xlsx
+++ b/ccaa_semanal_14_7.xlsx
@@ -223,16 +223,16 @@
     <t xml:space="preserve">2020-12-31</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-01-07</t>
+    <t xml:space="preserve">2021-01-07</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-01-14</t>
+    <t xml:space="preserve">2021-01-14</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-01-21</t>
+    <t xml:space="preserve">2021-01-21</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-01-28</t>
+    <t xml:space="preserve">2021-01-28</t>
   </si>
 </sst>
 </file>
@@ -372,11 +372,11 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A833" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B841" activeCellId="0" sqref="B841"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A791" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A836" activeCellId="0" sqref="A836"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>

--- a/ccaa_semanal_14_7.xlsx
+++ b/ccaa_semanal_14_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="75">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -234,6 +234,18 @@
   <si>
     <t xml:space="preserve">2021-01-28</t>
   </si>
+  <si>
+    <t xml:space="preserve">2021-02-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-25</t>
+  </si>
 </sst>
 </file>
 
@@ -372,11 +384,11 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A791" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A836" activeCellId="0" sqref="A836"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A869" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E875" activeCellId="0" sqref="E875:E951"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -15260,82 +15272,1298 @@
         <v>43</v>
       </c>
     </row>
-    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A876" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B876" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C876" s="0" t="n">
+        <v>34683</v>
+      </c>
+      <c r="D876" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A877" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B877" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C877" s="0" t="n">
+        <v>3854</v>
+      </c>
+      <c r="D877" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="E877" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A878" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B878" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C878" s="0" t="n">
+        <v>3155</v>
+      </c>
+      <c r="D878" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E878" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A879" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B879" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C879" s="0" t="n">
+        <v>2053</v>
+      </c>
+      <c r="D879" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A880" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B880" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C880" s="0" t="n">
+        <v>37736</v>
+      </c>
+      <c r="D880" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="E880" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A881" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B881" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C881" s="0" t="n">
+        <v>1737</v>
+      </c>
+      <c r="D881" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A882" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B882" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C882" s="0" t="n">
+        <v>936</v>
+      </c>
+      <c r="D882" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E882" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A883" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B883" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C883" s="0" t="n">
+        <v>8352</v>
+      </c>
+      <c r="D883" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A884" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B884" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C884" s="0" t="n">
+        <v>11397</v>
+      </c>
+      <c r="D884" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="E884" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A885" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B885" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C885" s="0" t="n">
+        <v>17451</v>
+      </c>
+      <c r="D885" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E885" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A886" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B886" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C886" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="D886" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E886" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A887" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B887" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C887" s="0" t="n">
+        <v>2831</v>
+      </c>
+      <c r="D887" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A888" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B888" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C888" s="0" t="n">
+        <v>8671</v>
+      </c>
+      <c r="D888" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A889" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B889" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C889" s="0" t="n">
+        <v>1525</v>
+      </c>
+      <c r="D889" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E889" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A890" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B890" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C890" s="0" t="n">
+        <v>26812</v>
+      </c>
+      <c r="D890" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="E890" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A891" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B891" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C891" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="D891" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E891" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A892" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B892" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C892" s="0" t="n">
+        <v>4318</v>
+      </c>
+      <c r="D892" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E892" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A893" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B893" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C893" s="0" t="n">
+        <v>1466</v>
+      </c>
+      <c r="D893" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E893" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A894" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B894" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C894" s="0" t="n">
+        <v>5922</v>
+      </c>
+      <c r="D894" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E894" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A895" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B895" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C895" s="0" t="n">
+        <v>21575</v>
+      </c>
+      <c r="D895" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="E895" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A896" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B896" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C896" s="0" t="n">
+        <v>2924</v>
+      </c>
+      <c r="D896" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="E896" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A897" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B897" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C897" s="0" t="n">
+        <v>2137</v>
+      </c>
+      <c r="D897" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E897" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A898" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B898" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C898" s="0" t="n">
+        <v>972</v>
+      </c>
+      <c r="D898" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E898" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A899" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B899" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C899" s="0" t="n">
+        <v>12603</v>
+      </c>
+      <c r="D899" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="E899" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A900" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B900" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C900" s="0" t="n">
+        <v>1409</v>
+      </c>
+      <c r="D900" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E900" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A901" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B901" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C901" s="0" t="n">
+        <v>648</v>
+      </c>
+      <c r="D901" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E901" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A902" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B902" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C902" s="0" t="n">
+        <v>4095</v>
+      </c>
+      <c r="D902" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E902" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A903" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B903" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C903" s="0" t="n">
+        <v>5966</v>
+      </c>
+      <c r="D903" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="E903" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A904" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B904" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C904" s="0" t="n">
+        <v>12627</v>
+      </c>
+      <c r="D904" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E904" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A905" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B905" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C905" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="D905" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E905" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A906" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B906" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C906" s="0" t="n">
+        <v>1170</v>
+      </c>
+      <c r="D906" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E906" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A907" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B907" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C907" s="0" t="n">
+        <v>5109</v>
+      </c>
+      <c r="D907" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E907" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A908" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B908" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C908" s="0" t="n">
+        <v>524</v>
+      </c>
+      <c r="D908" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E908" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A909" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B909" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C909" s="0" t="n">
+        <v>18515</v>
+      </c>
+      <c r="D909" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E909" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A910" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B910" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C910" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="D910" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E910" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A911" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B911" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C911" s="0" t="n">
+        <v>2038</v>
+      </c>
+      <c r="D911" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E911" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A912" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B912" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C912" s="0" t="n">
+        <v>911</v>
+      </c>
+      <c r="D912" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E912" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A913" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B913" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C913" s="0" t="n">
+        <v>4677</v>
+      </c>
+      <c r="D913" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E913" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A914" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B914" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C914" s="0" t="n">
+        <v>12040</v>
+      </c>
+      <c r="D914" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E914" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A915" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B915" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C915" s="0" t="n">
+        <v>1764</v>
+      </c>
+      <c r="D915" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E915" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A916" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B916" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C916" s="0" t="n">
+        <v>1297</v>
+      </c>
+      <c r="D916" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E916" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A917" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B917" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C917" s="0" t="n">
+        <v>725</v>
+      </c>
+      <c r="D917" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E917" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A918" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B918" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C918" s="0" t="n">
+        <v>5394</v>
+      </c>
+      <c r="D918" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="E918" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A919" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B919" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C919" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D919" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E919" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A920" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B920" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C920" s="0" t="n">
+        <v>471</v>
+      </c>
+      <c r="D920" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E920" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A921" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B921" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C921" s="0" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D921" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E921" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A922" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B922" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C922" s="0" t="n">
+        <v>3099</v>
+      </c>
+      <c r="D922" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E922" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A923" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B923" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C923" s="0" t="n">
+        <v>9510</v>
+      </c>
+      <c r="D923" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E923" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A924" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B924" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C924" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="D924" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E924" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A925" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B925" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C925" s="0" t="n">
+        <v>527</v>
+      </c>
+      <c r="D925" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E925" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A926" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B926" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C926" s="0" t="n">
+        <v>2865</v>
+      </c>
+      <c r="D926" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E926" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A927" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B927" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C927" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="D927" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E927" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A928" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B928" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C928" s="0" t="n">
+        <v>12386</v>
+      </c>
+      <c r="D928" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A929" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B929" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C929" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="D929" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E929" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A930" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B930" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C930" s="0" t="n">
+        <v>1139</v>
+      </c>
+      <c r="D930" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A931" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B931" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C931" s="0" t="n">
+        <v>494</v>
+      </c>
+      <c r="D931" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E931" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A932" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B932" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C932" s="0" t="n">
+        <v>3216</v>
+      </c>
+      <c r="D932" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E932" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A933" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B933" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C933" s="0" t="n">
+        <v>7222</v>
+      </c>
+      <c r="D933" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="E933" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A934" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B934" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C934" s="0" t="n">
+        <v>1274</v>
+      </c>
+      <c r="D934" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E934" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A935" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B935" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C935" s="0" t="n">
+        <v>1026</v>
+      </c>
+      <c r="D935" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E935" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A936" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B936" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C936" s="0" t="n">
+        <v>418</v>
+      </c>
+      <c r="D936" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E936" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A937" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B937" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C937" s="0" t="n">
+        <v>2728</v>
+      </c>
+      <c r="D937" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E937" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A938" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B938" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C938" s="0" t="n">
+        <v>1196</v>
+      </c>
+      <c r="D938" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E938" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A939" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B939" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C939" s="0" t="n">
+        <v>421</v>
+      </c>
+      <c r="D939" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E939" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A940" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B940" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C940" s="0" t="n">
+        <v>1071</v>
+      </c>
+      <c r="D940" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E940" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A941" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B941" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C941" s="0" t="n">
+        <v>2028</v>
+      </c>
+      <c r="D941" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="E941" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A942" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B942" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C942" s="0" t="n">
+        <v>8883</v>
+      </c>
+      <c r="D942" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E942" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A943" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B943" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C943" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D943" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E943" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A944" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B944" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C944" s="0" t="n">
+        <v>306</v>
+      </c>
+      <c r="D944" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E944" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A945" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B945" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C945" s="0" t="n">
+        <v>1916</v>
+      </c>
+      <c r="D945" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E945" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A946" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B946" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C946" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="D946" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E946" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A947" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B947" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C947" s="0" t="n">
+        <v>9388</v>
+      </c>
+      <c r="D947" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="E947" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A948" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B948" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C948" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="D948" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E948" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A949" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B949" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C949" s="0" t="n">
+        <v>753</v>
+      </c>
+      <c r="D949" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E949" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A950" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B950" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C950" s="0" t="n">
+        <v>468</v>
+      </c>
+      <c r="D950" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E950" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A951" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B951" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C951" s="0" t="n">
+        <v>2617</v>
+      </c>
+      <c r="D951" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E951" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/ccaa_semanal_14_7.xlsx
+++ b/ccaa_semanal_14_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="79">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -246,6 +246,18 @@
   <si>
     <t xml:space="preserve">2021-02-25</t>
   </si>
+  <si>
+    <t xml:space="preserve">2021-03-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-25</t>
+  </si>
 </sst>
 </file>
 
@@ -382,13 +394,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:E1027"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A869" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E875" activeCellId="0" sqref="E875:E951"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A944" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E951" activeCellId="0" sqref="E951:E1027"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -16564,55 +16576,1298 @@
         <v>43</v>
       </c>
     </row>
-    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A952" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C952" s="1" t="n">
+        <v>5426</v>
+      </c>
+      <c r="D952" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="E952" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A953" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C953" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D953" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E953" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A954" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C954" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="D954" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E954" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A955" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C955" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="D955" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E955" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A956" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C956" s="1" t="n">
+        <v>1674</v>
+      </c>
+      <c r="D956" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E956" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A957" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C957" s="1" t="n">
+        <v>1160</v>
+      </c>
+      <c r="D957" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E957" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A958" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C958" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="D958" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E958" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A959" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C959" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="D959" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E959" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A960" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C960" s="1" t="n">
+        <v>1535</v>
+      </c>
+      <c r="D960" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E960" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A961" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C961" s="1" t="n">
+        <v>7627</v>
+      </c>
+      <c r="D961" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E961" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A962" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C962" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="D962" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E962" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A963" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C963" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="D963" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E963" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A964" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C964" s="1" t="n">
+        <v>1301</v>
+      </c>
+      <c r="D964" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E964" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A965" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C965" s="1" t="n">
+        <v>2130</v>
+      </c>
+      <c r="D965" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E965" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A966" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C966" s="1" t="n">
+        <v>7864</v>
+      </c>
+      <c r="D966" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E966" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A967" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C967" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D967" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E967" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A968" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C968" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="D968" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E968" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A969" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C969" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="D969" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E969" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A970" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C970" s="1" t="n">
+        <v>2047</v>
+      </c>
+      <c r="D970" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E970" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A971" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C971" s="1" t="n">
+        <v>5810</v>
+      </c>
+      <c r="D971" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="E971" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A972" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C972" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="D972" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E972" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A973" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C973" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="D973" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E973" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A974" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C974" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="D974" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E974" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A975" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C975" s="1" t="n">
+        <v>1724</v>
+      </c>
+      <c r="D975" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E975" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A976" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C976" s="1" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D976" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E976" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A977" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C977" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="D977" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E977" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A978" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C978" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="D978" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E978" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A979" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C979" s="1" t="n">
+        <v>1272</v>
+      </c>
+      <c r="D979" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E979" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A980" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C980" s="1" t="n">
+        <v>6605</v>
+      </c>
+      <c r="D980" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E980" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A981" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C981" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="D981" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E981" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A982" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C982" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="D982" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E982" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A983" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C983" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="D983" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E983" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A984" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C984" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="D984" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E984" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A985" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C985" s="1" t="n">
+        <v>7522</v>
+      </c>
+      <c r="D985" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="E985" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A986" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C986" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="D986" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E986" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A987" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B987" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C987" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="D987" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E987" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A988" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B988" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C988" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="D988" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E988" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A989" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B989" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C989" s="1" t="n">
+        <v>1876</v>
+      </c>
+      <c r="D989" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E989" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A990" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B990" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C990" s="1" t="n">
+        <v>5360</v>
+      </c>
+      <c r="D990" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E990" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A991" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B991" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C991" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="D991" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E991" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A992" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C992" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="D992" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E992" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A993" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C993" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="D993" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E993" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A994" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C994" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="D994" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E994" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A995" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B995" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C995" s="1" t="n">
+        <v>1479</v>
+      </c>
+      <c r="D995" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E995" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A996" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C996" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="D996" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E996" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A997" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C997" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="D997" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E997" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A998" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C998" s="1" t="n">
+        <v>1338</v>
+      </c>
+      <c r="D998" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E998" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A999" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C999" s="1" t="n">
+        <v>7146</v>
+      </c>
+      <c r="D999" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E999" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1000" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="D1000" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1000" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1001" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="D1001" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1001" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1002" s="1" t="n">
+        <v>1101</v>
+      </c>
+      <c r="D1002" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1002" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1003" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1003" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1003" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1004" s="1" t="n">
+        <v>7943</v>
+      </c>
+      <c r="D1004" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E1004" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1005" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="D1005" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1005" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1006" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="D1006" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1006" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1007" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="D1007" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1007" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1008" s="1" t="n">
+        <v>2092</v>
+      </c>
+      <c r="D1008" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1008" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1009" s="1" t="n">
+        <v>5992</v>
+      </c>
+      <c r="D1009" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E1009" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1010" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="D1010" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1010" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1011" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="D1011" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1011" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1012" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="D1012" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1012" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1013" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="D1013" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1013" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1014" s="1" t="n">
+        <v>1547</v>
+      </c>
+      <c r="D1014" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1014" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1015" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="D1015" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1015" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1016" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="D1016" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1016" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1017" s="1" t="n">
+        <v>1386</v>
+      </c>
+      <c r="D1017" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1017" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1018" s="1" t="n">
+        <v>8227</v>
+      </c>
+      <c r="D1018" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1018" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1019" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1019" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1019" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1020" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="D1020" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1020" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1021" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="D1021" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1021" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1022" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="D1022" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1022" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1023" s="1" t="n">
+        <v>8353</v>
+      </c>
+      <c r="D1023" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E1023" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1024" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="D1024" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1024" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1025" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="D1025" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1025" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1026" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="D1026" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1026" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1027" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1027" s="1" t="n">
+        <v>2481</v>
+      </c>
+      <c r="D1027" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1027" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/ccaa_semanal_14_7.xlsx
+++ b/ccaa_semanal_14_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="84">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -258,6 +258,21 @@
   <si>
     <t xml:space="preserve">2021-03-25</t>
   </si>
+  <si>
+    <t xml:space="preserve">2021-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-29</t>
+  </si>
 </sst>
 </file>
 
@@ -394,13 +409,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1027"/>
+  <dimension ref="A1:E1122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A944" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E951" activeCellId="0" sqref="E951:E1027"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1091" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1030" activeCellId="0" sqref="E1030"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -17868,6 +17883,1621 @@
         <v>43</v>
       </c>
     </row>
+    <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1028" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1028" s="1" t="n">
+        <v>8101</v>
+      </c>
+      <c r="D1028" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1028" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1029" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="D1029" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1029" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1030" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="D1030" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1030" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1031" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="D1031" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1031" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1032" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="D1032" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1032" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1033" s="1" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D1033" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1033" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1034" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="D1034" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1034" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1035" s="1" t="n">
+        <v>1620</v>
+      </c>
+      <c r="D1035" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1035" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1036" s="1" t="n">
+        <v>2085</v>
+      </c>
+      <c r="D1036" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1036" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1037" s="1" t="n">
+        <v>9455</v>
+      </c>
+      <c r="D1037" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1037" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1038" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="D1038" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1038" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1039" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="D1039" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1039" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1040" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1040" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="D1040" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1040" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1041" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1041" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="D1041" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1041" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1042" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1042" s="1" t="n">
+        <v>11464</v>
+      </c>
+      <c r="D1042" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E1042" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1043" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1043" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="D1043" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1043" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1044" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1044" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="D1044" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1044" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1045" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1045" s="1" t="n">
+        <v>1186</v>
+      </c>
+      <c r="D1045" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1045" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1046" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1046" s="1" t="n">
+        <v>3112</v>
+      </c>
+      <c r="D1046" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1046" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1047" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1047" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1047" s="1" t="n">
+        <v>9365</v>
+      </c>
+      <c r="D1047" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1047" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1048" s="1" t="n">
+        <v>1426</v>
+      </c>
+      <c r="D1048" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E1048" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1049" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="D1049" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1049" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1050" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1050" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="D1050" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1050" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1051" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1051" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="D1051" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1051" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1052" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1052" s="1" t="n">
+        <v>1327</v>
+      </c>
+      <c r="D1052" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1052" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1053" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1053" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="D1053" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1053" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1054" s="1" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D1054" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1054" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1055" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1055" s="1" t="n">
+        <v>2353</v>
+      </c>
+      <c r="D1055" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1055" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1056" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1056" s="1" t="n">
+        <v>8454</v>
+      </c>
+      <c r="D1056" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1056" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1057" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1057" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="D1057" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1057" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1058" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1058" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="D1058" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1058" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1059" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="D1059" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1059" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1060" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1060" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="D1060" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1060" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1061" s="1" t="n">
+        <v>10613</v>
+      </c>
+      <c r="D1061" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="E1061" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1062" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1062" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="D1062" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1062" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1063" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1063" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="D1063" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1063" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1064" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1064" s="1" t="n">
+        <v>1346</v>
+      </c>
+      <c r="D1064" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1064" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1065" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1065" s="1" t="n">
+        <v>3364</v>
+      </c>
+      <c r="D1065" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E1065" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1066" s="1" t="n">
+        <v>12166</v>
+      </c>
+      <c r="D1066" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E1066" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1067" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1067" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D1067" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1067" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1068" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1068" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="D1068" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1068" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1069" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1069" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="D1069" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1069" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1070" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1070" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="D1070" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1070" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1071" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1071" s="1" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D1071" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1071" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1072" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1072" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="D1072" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1072" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1073" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1073" s="1" t="n">
+        <v>2314</v>
+      </c>
+      <c r="D1073" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1073" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1074" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1074" s="1" t="n">
+        <v>2471</v>
+      </c>
+      <c r="D1074" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1074" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1075" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1075" s="1" t="n">
+        <v>11146</v>
+      </c>
+      <c r="D1075" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1075" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1076" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1076" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="D1076" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1076" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1077" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1077" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="D1077" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1077" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1078" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1078" s="1" t="n">
+        <v>1304</v>
+      </c>
+      <c r="D1078" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1078" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1079" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1079" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="D1079" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1079" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1080" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1080" s="1" t="n">
+        <v>13798</v>
+      </c>
+      <c r="D1080" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E1080" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1081" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1081" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="D1081" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1081" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1082" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1082" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="D1082" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1082" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1083" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1083" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1083" s="1" t="n">
+        <v>1555</v>
+      </c>
+      <c r="D1083" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1083" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1084" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1084" s="1" t="n">
+        <v>5650</v>
+      </c>
+      <c r="D1084" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E1084" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1085" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1085" s="1" t="n">
+        <v>10970</v>
+      </c>
+      <c r="D1085" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E1085" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1086" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1086" s="1" t="n">
+        <v>1858</v>
+      </c>
+      <c r="D1086" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1086" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1087" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1087" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="D1087" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1087" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1088" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1088" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="D1088" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1088" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1089" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1089" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="D1089" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1089" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1090" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1090" s="1" t="n">
+        <v>1412</v>
+      </c>
+      <c r="D1090" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1090" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1091" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1091" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="D1091" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1091" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1092" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1092" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1092" s="1" t="n">
+        <v>2386</v>
+      </c>
+      <c r="D1092" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1092" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1093" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1093" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1093" s="1" t="n">
+        <v>2484</v>
+      </c>
+      <c r="D1093" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1093" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1094" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1094" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1094" s="1" t="n">
+        <v>12198</v>
+      </c>
+      <c r="D1094" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1094" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1095" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1095" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="D1095" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1095" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1096" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1096" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1096" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1096" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1097" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1097" s="1" t="n">
+        <v>1355</v>
+      </c>
+      <c r="D1097" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1097" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1098" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1098" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="D1098" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1098" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1099" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1099" s="1" t="n">
+        <v>13958</v>
+      </c>
+      <c r="D1099" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="E1099" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1100" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1100" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="D1100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1100" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1101" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1101" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="D1101" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1101" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1102" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1102" s="1" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D1102" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1102" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1103" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1103" s="1" t="n">
+        <v>5864</v>
+      </c>
+      <c r="D1103" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1103" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1104" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1104" s="1" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D1104" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="E1104" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1105" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1105" s="1" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D1105" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1105" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1106" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1106" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="D1106" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1106" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1107" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1107" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="D1107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1107" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1108" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1108" s="1" t="n">
+        <v>1238</v>
+      </c>
+      <c r="D1108" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1108" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1109" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1109" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="D1109" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1109" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1110" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1110" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="D1110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1110" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1111" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1111" s="1" t="n">
+        <v>2377</v>
+      </c>
+      <c r="D1111" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1111" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1112" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1112" s="1" t="n">
+        <v>2303</v>
+      </c>
+      <c r="D1112" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1112" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1113" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1113" s="1" t="n">
+        <v>12181</v>
+      </c>
+      <c r="D1113" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E1113" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1114" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1114" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="D1114" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1114" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1115" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1115" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="D1115" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1115" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1116" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1116" s="1" t="n">
+        <v>1420</v>
+      </c>
+      <c r="D1116" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1116" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1117" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1117" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="D1117" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1117" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1118" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1118" s="1" t="n">
+        <v>13006</v>
+      </c>
+      <c r="D1118" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E1118" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1119" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1119" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="D1119" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1119" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1120" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1120" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="D1120" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1120" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1121" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1121" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="D1121" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1121" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1122" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1122" s="1" t="n">
+        <v>5767</v>
+      </c>
+      <c r="D1122" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1122" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/ccaa_semanal_14_7.xlsx
+++ b/ccaa_semanal_14_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="88">
   <si>
     <t xml:space="preserve">Semana</t>
   </si>
@@ -273,6 +273,18 @@
   <si>
     <t xml:space="preserve">2021-04-29</t>
   </si>
+  <si>
+    <t xml:space="preserve">2021-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-27</t>
+  </si>
 </sst>
 </file>
 
@@ -409,13 +421,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1122"/>
+  <dimension ref="A1:E1198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1091" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1030" activeCellId="0" sqref="E1030"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1193" activeCellId="0" sqref="B1193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -19498,6 +19510,1070 @@
         <v>43</v>
       </c>
     </row>
+    <row r="1123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1123" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1123" s="1" t="n">
+        <v>8205</v>
+      </c>
+      <c r="D1123" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1124" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1124" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="D1124" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1125" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1125" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="D1125" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1126" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1126" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="D1126" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1127" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1127" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="D1127" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1128" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1128" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="D1128" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1129" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1129" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="D1129" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1130" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1130" s="1" t="n">
+        <v>2189</v>
+      </c>
+      <c r="D1130" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1131" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1131" s="1" t="n">
+        <v>1917</v>
+      </c>
+      <c r="D1131" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1132" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1132" s="1" t="n">
+        <v>9649</v>
+      </c>
+      <c r="D1132" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1133" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1133" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="D1133" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1134" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1134" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="D1134" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1135" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1135" s="1" t="n">
+        <v>1281</v>
+      </c>
+      <c r="D1135" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1136" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1136" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="D1136" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1137" s="1" t="n">
+        <v>9529</v>
+      </c>
+      <c r="D1137" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1138" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1138" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="D1138" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1139" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1139" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="D1139" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1140" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1140" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="D1140" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1141" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1141" s="1" t="n">
+        <v>4548</v>
+      </c>
+      <c r="D1141" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1142" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1142" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1142" s="1" t="n">
+        <v>7753</v>
+      </c>
+      <c r="D1142" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1143" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1143" s="1" t="n">
+        <v>1395</v>
+      </c>
+      <c r="D1143" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1144" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1144" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="D1144" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1145" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1145" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="D1145" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1146" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1146" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="D1146" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1147" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1147" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1147" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="D1147" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1148" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1148" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="D1148" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1149" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1149" s="1" t="n">
+        <v>1789</v>
+      </c>
+      <c r="D1149" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1150" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1150" s="1" t="n">
+        <v>1674</v>
+      </c>
+      <c r="D1150" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1151" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1151" s="1" t="n">
+        <v>6738</v>
+      </c>
+      <c r="D1151" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1152" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1152" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1152" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1153" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1153" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="D1153" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1154" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1154" s="1" t="n">
+        <v>1261</v>
+      </c>
+      <c r="D1154" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1155" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1155" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="D1155" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1156" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1156" s="1" t="n">
+        <v>8966</v>
+      </c>
+      <c r="D1156" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1157" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1157" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="D1157" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1158" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1158" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="D1158" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1159" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1159" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1159" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="D1159" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1160" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1160" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1160" s="1" t="n">
+        <v>3337</v>
+      </c>
+      <c r="D1160" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1161" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1161" s="1" t="n">
+        <v>7431</v>
+      </c>
+      <c r="D1161" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1162" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1162" s="1" t="n">
+        <v>1274</v>
+      </c>
+      <c r="D1162" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1163" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1163" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="D1163" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1164" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1164" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="D1164" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1165" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1165" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="D1165" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1166" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1166" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="D1166" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1167" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1167" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="D1167" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1168" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1168" s="1" t="n">
+        <v>1501</v>
+      </c>
+      <c r="D1168" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1169" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1169" s="1" t="n">
+        <v>1672</v>
+      </c>
+      <c r="D1169" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1170" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1170" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1170" s="1" t="n">
+        <v>5739</v>
+      </c>
+      <c r="D1170" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1171" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1171" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1171" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1171" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1172" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1172" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="D1172" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1173" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1173" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="D1173" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1174" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1174" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="D1174" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1175" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1175" s="1" t="n">
+        <v>7249</v>
+      </c>
+      <c r="D1175" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1176" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1176" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1176" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="D1176" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1177" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1177" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1177" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="D1177" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1178" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1178" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1178" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="D1178" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1179" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1179" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1179" s="1" t="n">
+        <v>2286</v>
+      </c>
+      <c r="D1179" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1180" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1180" s="1" t="n">
+        <v>7850</v>
+      </c>
+      <c r="D1180" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1181" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1181" s="1" t="n">
+        <v>1074</v>
+      </c>
+      <c r="D1181" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1182" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1182" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="D1182" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1183" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1183" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="D1183" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1184" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1184" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="D1184" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1185" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1185" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="D1185" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1186" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1186" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="D1186" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1187" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1187" s="1" t="n">
+        <v>1323</v>
+      </c>
+      <c r="D1187" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1188" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1188" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1188" s="1" t="n">
+        <v>1610</v>
+      </c>
+      <c r="D1188" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1189" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1189" s="1" t="n">
+        <v>4737</v>
+      </c>
+      <c r="D1189" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1190" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1190" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1190" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1191" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1191" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="D1191" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1192" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1192" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="D1192" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1193" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1193" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="D1193" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1194" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1194" s="1" t="n">
+        <v>6140</v>
+      </c>
+      <c r="D1194" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1195" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1195" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1195" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="D1195" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1196" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1196" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1196" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="D1196" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1197" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1197" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1197" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="D1197" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1198" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1198" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1198" s="1" t="n">
+        <v>2198</v>
+      </c>
+      <c r="D1198" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
